--- a/temp/number1.xlsx
+++ b/temp/number1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkjr/Dropbox/SharedFolder/2022_ML_COVID19/Code/final_code/_GitHub/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkjr/Library/CloudStorage/Dropbox/SharedFolder/2022_ML_COVID19/Code/final_code/_GitHub2/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6BB50-A8FD-9A42-B868-08F063A4B9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54AB215-D514-E54B-9D9D-C7F9538C3224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12800" windowHeight="15500" xr2:uid="{ADB27A6D-912E-F144-BA9E-35D7C2962140}"/>
+    <workbookView xWindow="12800" yWindow="500" windowWidth="12800" windowHeight="15500" xr2:uid="{ADB27A6D-912E-F144-BA9E-35D7C2962140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502E10E8-FB4C-3D4A-B70B-6A56FBA9E1EC}">
   <dimension ref="A1:E988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A969" workbookViewId="0">
+      <selection activeCell="E981" sqref="E981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B298" s="8">
         <v>44175</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B303" s="8">
         <v>44180</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B305" s="8">
         <v>44182</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B317" s="8">
         <v>44194</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B350" s="8">
         <v>44227</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B370" s="8">
         <v>44247</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B442" s="8">
         <v>44319</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="1">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B516" s="10">
         <v>44393</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="1">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B540" s="10">
         <v>44417</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="1">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B557" s="10">
         <v>44434</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="570" spans="1:5">
       <c r="A570" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B570" s="10">
         <v>44447</v>
@@ -7492,7 +7492,7 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="1">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B578" s="10">
         <v>44455</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="1">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B579" s="10">
         <v>44456</v>
@@ -7612,7 +7612,7 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="1">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B588" s="10">
         <v>44465</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="1">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B589" s="10">
         <v>44466</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="1">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B599" s="10">
         <v>44476</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="1">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B601" s="10">
         <v>44478</v>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="1">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B602" s="10">
         <v>44479</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="1">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B605" s="10">
         <v>44482</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="1">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B615" s="10">
         <v>44492</v>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="1">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B616" s="10">
         <v>44493</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="1">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B625" s="10">
         <v>44502</v>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="1">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B632" s="10">
         <v>44509</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="1">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B640" s="8">
         <v>44517</v>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="1">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B641" s="8">
         <v>44518</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="1">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B642" s="8">
         <v>44519</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="1">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="B644" s="8">
         <v>44521</v>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="1">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B646" s="8">
         <v>44523</v>
@@ -8320,7 +8320,7 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="1">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="B647" s="8">
         <v>44524</v>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="1">
-        <v>3916</v>
+        <v>3913</v>
       </c>
       <c r="B648" s="8">
         <v>44525</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="1">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B649" s="8">
         <v>44526</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="1">
-        <v>4044</v>
+        <v>4041</v>
       </c>
       <c r="B650" s="11">
         <v>44527</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="1">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="B651" s="11">
         <v>44528</v>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="1">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B653" s="11">
         <v>44530</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="1">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="B654" s="11">
         <v>44531</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="1">
-        <v>5238</v>
+        <v>5237</v>
       </c>
       <c r="B655" s="11">
         <v>44532</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="1">
-        <v>4922</v>
+        <v>4921</v>
       </c>
       <c r="B656" s="11">
         <v>44533</v>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="1">
-        <v>5327</v>
+        <v>5324</v>
       </c>
       <c r="B657" s="11">
         <v>44534</v>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="1">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B658" s="11">
         <v>44535</v>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="1">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="B659" s="11">
         <v>44536</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="1">
-        <v>4922</v>
+        <v>4919</v>
       </c>
       <c r="B660" s="11">
         <v>44537</v>
@@ -8500,7 +8500,7 @@
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="1">
-        <v>7081</v>
+        <v>7080</v>
       </c>
       <c r="B662" s="11">
         <v>44539</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="1">
-        <v>6981</v>
+        <v>6976</v>
       </c>
       <c r="B663" s="11">
         <v>44540</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>6946</v>
+        <v>6944</v>
       </c>
       <c r="B664" s="11">
         <v>44541</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="1">
-        <v>6655</v>
+        <v>6652</v>
       </c>
       <c r="B665" s="11">
         <v>44542</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="1">
-        <v>5523</v>
+        <v>5522</v>
       </c>
       <c r="B667" s="11">
         <v>44544</v>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="1">
-        <v>7825</v>
+        <v>7818</v>
       </c>
       <c r="B668" s="11">
         <v>44545</v>
@@ -8584,7 +8584,7 @@
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="1">
-        <v>7587</v>
+        <v>7583</v>
       </c>
       <c r="B669" s="11">
         <v>44546</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="1">
-        <v>7398</v>
+        <v>7395</v>
       </c>
       <c r="B670" s="11">
         <v>44547</v>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="1">
-        <v>7281</v>
+        <v>7278</v>
       </c>
       <c r="B671" s="11">
         <v>44548</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="1">
-        <v>6169</v>
+        <v>6168</v>
       </c>
       <c r="B672" s="11">
         <v>44549</v>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="673" spans="1:5">
       <c r="A673" s="1">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="B673" s="11">
         <v>44550</v>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="674" spans="1:5">
       <c r="A674" s="1">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="B674" s="11">
         <v>44551</v>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="675" spans="1:5">
       <c r="A675" s="1">
-        <v>7363</v>
+        <v>7356</v>
       </c>
       <c r="B675" s="11">
         <v>44552</v>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="676" spans="1:5">
       <c r="A676" s="1">
-        <v>6853</v>
+        <v>6849</v>
       </c>
       <c r="B676" s="11">
         <v>44553</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="677" spans="1:5">
       <c r="A677" s="1">
-        <v>6163</v>
+        <v>6159</v>
       </c>
       <c r="B677" s="11">
         <v>44554</v>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="678" spans="1:5">
       <c r="A678" s="1">
-        <v>5764</v>
+        <v>5762</v>
       </c>
       <c r="B678" s="8">
         <v>44555</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="679" spans="1:5">
       <c r="A679" s="1">
-        <v>5335</v>
+        <v>5333</v>
       </c>
       <c r="B679" s="8">
         <v>44556</v>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="680" spans="1:5">
       <c r="A680" s="1">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="B680" s="8">
         <v>44557</v>
@@ -8728,7 +8728,7 @@
     </row>
     <row r="681" spans="1:5">
       <c r="A681" s="1">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="B681" s="8">
         <v>44558</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="682" spans="1:5">
       <c r="A682" s="1">
-        <v>5279</v>
+        <v>5276</v>
       </c>
       <c r="B682" s="8">
         <v>44559</v>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="683" spans="1:5">
       <c r="A683" s="1">
-        <v>4929</v>
+        <v>4928</v>
       </c>
       <c r="B683" s="8">
         <v>44560</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="684" spans="1:5">
       <c r="A684" s="1">
-        <v>4755</v>
+        <v>4754</v>
       </c>
       <c r="B684" s="8">
         <v>44561</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="685" spans="1:5">
       <c r="A685" s="1">
-        <v>4309</v>
+        <v>4306</v>
       </c>
       <c r="B685" s="9">
         <v>44562</v>
@@ -8788,7 +8788,7 @@
     </row>
     <row r="686" spans="1:5">
       <c r="A686" s="1">
-        <v>3680</v>
+        <v>3676</v>
       </c>
       <c r="B686" s="8">
         <v>44563</v>
@@ -8812,7 +8812,7 @@
     </row>
     <row r="688" spans="1:5" s="3" customFormat="1">
       <c r="A688" s="1">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="B688" s="8">
         <v>44565</v>
@@ -8838,7 +8838,7 @@
     </row>
     <row r="690" spans="1:5" s="3" customFormat="1">
       <c r="A690" s="1">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="B690" s="8">
         <v>44567</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="691" spans="1:5" s="3" customFormat="1">
       <c r="A691" s="1">
-        <v>3526</v>
+        <v>3521</v>
       </c>
       <c r="B691" s="8">
         <v>44568</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="692" spans="1:5" s="3" customFormat="1">
       <c r="A692" s="1">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="B692" s="8">
         <v>44569</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="693" spans="1:5">
       <c r="A693" s="1">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="B693" s="8">
         <v>44570</v>
@@ -8889,7 +8889,7 @@
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="1">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B694" s="8">
         <v>44571</v>
@@ -8901,7 +8901,7 @@
     </row>
     <row r="695" spans="1:5">
       <c r="A695" s="1">
-        <v>2810</v>
+        <v>2805</v>
       </c>
       <c r="B695" s="8">
         <v>44572</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="696" spans="1:5">
       <c r="A696" s="1">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B696" s="8">
         <v>44573</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="697" spans="1:5">
       <c r="A697" s="1">
-        <v>3775</v>
+        <v>3773</v>
       </c>
       <c r="B697" s="8">
         <v>44574</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="698" spans="1:5">
       <c r="A698" s="1">
-        <v>4131</v>
+        <v>4128</v>
       </c>
       <c r="B698" s="8">
         <v>44575</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="699" spans="1:5">
       <c r="A699" s="1">
-        <v>4073</v>
+        <v>4068</v>
       </c>
       <c r="B699" s="8">
         <v>44576</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="700" spans="1:5">
       <c r="A700" s="1">
-        <v>3811</v>
+        <v>3808</v>
       </c>
       <c r="B700" s="8">
         <v>44577</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="701" spans="1:5">
       <c r="A701" s="1">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="B701" s="8">
         <v>44578</v>
@@ -8985,7 +8985,7 @@
     </row>
     <row r="702" spans="1:5">
       <c r="A702" s="1">
-        <v>3761</v>
+        <v>3758</v>
       </c>
       <c r="B702" s="8">
         <v>44579</v>
@@ -8997,7 +8997,7 @@
     </row>
     <row r="703" spans="1:5">
       <c r="A703" s="1">
-        <v>5430</v>
+        <v>5421</v>
       </c>
       <c r="B703" s="8">
         <v>44580</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="704" spans="1:5">
       <c r="A704" s="1">
-        <v>6355</v>
+        <v>6354</v>
       </c>
       <c r="B704" s="8">
         <v>44581</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="1">
-        <v>6725</v>
+        <v>6714</v>
       </c>
       <c r="B706" s="8">
         <v>44583</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="1">
-        <v>7340</v>
+        <v>7338</v>
       </c>
       <c r="B707" s="8">
         <v>44584</v>
@@ -9057,7 +9057,7 @@
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="1">
-        <v>7157</v>
+        <v>7153</v>
       </c>
       <c r="B708" s="8">
         <v>44585</v>
@@ -9081,7 +9081,7 @@
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="1">
-        <v>12734</v>
+        <v>12732</v>
       </c>
       <c r="B710" s="8">
         <v>44587</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="1">
-        <v>14297</v>
+        <v>14289</v>
       </c>
       <c r="B711" s="8">
         <v>44588</v>
@@ -9105,7 +9105,7 @@
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="1">
-        <v>15888</v>
+        <v>15881</v>
       </c>
       <c r="B712" s="8">
         <v>44589</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="1">
-        <v>17316</v>
+        <v>17310</v>
       </c>
       <c r="B713" s="8">
         <v>44590</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="1">
-        <v>17295</v>
+        <v>17288</v>
       </c>
       <c r="B714" s="8">
         <v>44591</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="1">
-        <v>16841</v>
+        <v>16837</v>
       </c>
       <c r="B715" s="8">
         <v>44592</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="1">
-        <v>18113</v>
+        <v>18108</v>
       </c>
       <c r="B716" s="8">
         <v>44593</v>
@@ -9165,7 +9165,7 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="1">
-        <v>20105</v>
+        <v>20097</v>
       </c>
       <c r="B717" s="8">
         <v>44594</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="1">
-        <v>22702</v>
+        <v>22698</v>
       </c>
       <c r="B718" s="8">
         <v>44595</v>
@@ -9189,7 +9189,7 @@
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="1">
-        <v>27276</v>
+        <v>27265</v>
       </c>
       <c r="B719" s="8">
         <v>44596</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="1">
-        <v>36141</v>
+        <v>36127</v>
       </c>
       <c r="B720" s="8">
         <v>44597</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="1">
-        <v>38492</v>
+        <v>38483</v>
       </c>
       <c r="B721" s="8">
         <v>44598</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="1">
-        <v>35120</v>
+        <v>35107</v>
       </c>
       <c r="B722" s="8">
         <v>44599</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="1">
-        <v>36608</v>
+        <v>36596</v>
       </c>
       <c r="B723" s="8">
         <v>44600</v>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="1">
-        <v>49373</v>
+        <v>49346</v>
       </c>
       <c r="B724" s="8">
         <v>44601</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="1">
-        <v>54029</v>
+        <v>54016</v>
       </c>
       <c r="B725" s="8">
         <v>44602</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="1">
-        <v>53775</v>
+        <v>53751</v>
       </c>
       <c r="B726" s="8">
         <v>44603</v>
@@ -9285,7 +9285,7 @@
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="1">
-        <v>54820</v>
+        <v>54806</v>
       </c>
       <c r="B727" s="8">
         <v>44604</v>
@@ -9297,7 +9297,7 @@
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="1">
-        <v>56268</v>
+        <v>56234</v>
       </c>
       <c r="B728" s="8">
         <v>44605</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="1">
-        <v>54449</v>
+        <v>54419</v>
       </c>
       <c r="B729" s="8">
         <v>44606</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="1">
-        <v>56995</v>
+        <v>56972</v>
       </c>
       <c r="B730" s="8">
         <v>44607</v>
@@ -9333,7 +9333,7 @@
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="1">
-        <v>90270</v>
+        <v>90248</v>
       </c>
       <c r="B731" s="8">
         <v>44608</v>
@@ -9345,7 +9345,7 @@
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="1">
-        <v>93028</v>
+        <v>93013</v>
       </c>
       <c r="B732" s="8">
         <v>44609</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="1">
-        <v>109688</v>
+        <v>109666</v>
       </c>
       <c r="B733" s="8">
         <v>44610</v>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="1">
-        <v>102053</v>
+        <v>102035</v>
       </c>
       <c r="B734" s="8">
         <v>44611</v>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="1">
-        <v>104716</v>
+        <v>104695</v>
       </c>
       <c r="B735" s="8">
         <v>44612</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="1">
-        <v>95205</v>
+        <v>95193</v>
       </c>
       <c r="B736" s="8">
         <v>44613</v>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="1">
-        <v>99426</v>
+        <v>99401</v>
       </c>
       <c r="B737" s="8">
         <v>44614</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="1">
-        <v>171249</v>
+        <v>171235</v>
       </c>
       <c r="B738" s="8">
         <v>44615</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="1">
-        <v>169826</v>
+        <v>169806</v>
       </c>
       <c r="B739" s="8">
         <v>44616</v>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="1">
-        <v>165739</v>
+        <v>165695</v>
       </c>
       <c r="B740" s="8">
         <v>44617</v>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="1">
-        <v>166047</v>
+        <v>166027</v>
       </c>
       <c r="B741" s="8">
         <v>44618</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="1">
-        <v>163397</v>
+        <v>163372</v>
       </c>
       <c r="B742" s="8">
         <v>44619</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="1">
-        <v>139459</v>
+        <v>139444</v>
       </c>
       <c r="B743" s="8">
         <v>44620</v>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="1">
-        <v>138921</v>
+        <v>138907</v>
       </c>
       <c r="B744" s="8">
         <v>44621</v>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="1">
-        <v>219145</v>
+        <v>219126</v>
       </c>
       <c r="B745" s="8">
         <v>44622</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="1">
-        <v>198739</v>
+        <v>198729</v>
       </c>
       <c r="B746" s="8">
         <v>44623</v>
@@ -9525,7 +9525,7 @@
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="1">
-        <v>266757</v>
+        <v>266738</v>
       </c>
       <c r="B747" s="8">
         <v>44624</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="1">
-        <v>254238</v>
+        <v>254206</v>
       </c>
       <c r="B748" s="8">
         <v>44625</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="1">
-        <v>243523</v>
+        <v>243501</v>
       </c>
       <c r="B749" s="8">
         <v>44626</v>
@@ -9561,7 +9561,7 @@
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="1">
-        <v>210603</v>
+        <v>210589</v>
       </c>
       <c r="B750" s="8">
         <v>44627</v>
@@ -9573,7 +9573,7 @@
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="1">
-        <v>202619</v>
+        <v>202570</v>
       </c>
       <c r="B751" s="8">
         <v>44628</v>
@@ -9585,7 +9585,7 @@
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="1">
-        <v>342360</v>
+        <v>342336</v>
       </c>
       <c r="B752" s="8">
         <v>44629</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="1">
-        <v>327458</v>
+        <v>327437</v>
       </c>
       <c r="B753" s="8">
         <v>44630</v>
@@ -9609,7 +9609,7 @@
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="1">
-        <v>282859</v>
+        <v>282843</v>
       </c>
       <c r="B754" s="8">
         <v>44631</v>
@@ -9621,7 +9621,7 @@
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="1">
-        <v>383560</v>
+        <v>383537</v>
       </c>
       <c r="B755" s="8">
         <v>44632</v>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="1">
-        <v>350115</v>
+        <v>350094</v>
       </c>
       <c r="B756" s="8">
         <v>44633</v>
@@ -9645,7 +9645,7 @@
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="1">
-        <v>309702</v>
+        <v>309682</v>
       </c>
       <c r="B757" s="8">
         <v>44634</v>
@@ -9657,7 +9657,7 @@
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="1">
-        <v>362194</v>
+        <v>362170</v>
       </c>
       <c r="B758" s="8">
         <v>44635</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="1">
-        <v>400448</v>
+        <v>400376</v>
       </c>
       <c r="B759" s="8">
         <v>44636</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="1">
-        <v>621072</v>
+        <v>620990</v>
       </c>
       <c r="B760" s="8">
         <v>44637</v>
@@ -9693,7 +9693,7 @@
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="1">
-        <v>406785</v>
+        <v>406745</v>
       </c>
       <c r="B761" s="8">
         <v>44638</v>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="1">
-        <v>381301</v>
+        <v>381259</v>
       </c>
       <c r="B762" s="8">
         <v>44639</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="1">
-        <v>334564</v>
+        <v>334522</v>
       </c>
       <c r="B763" s="8">
         <v>44640</v>
@@ -9729,7 +9729,7 @@
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="1">
-        <v>209074</v>
+        <v>209048</v>
       </c>
       <c r="B764" s="8">
         <v>44641</v>
@@ -9741,7 +9741,7 @@
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="1">
-        <v>353832</v>
+        <v>353810</v>
       </c>
       <c r="B765" s="8">
         <v>44642</v>
@@ -9753,7 +9753,7 @@
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="1">
-        <v>490708</v>
+        <v>490630</v>
       </c>
       <c r="B766" s="8">
         <v>44643</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="1">
-        <v>395450</v>
+        <v>395420</v>
       </c>
       <c r="B767" s="8">
         <v>44644</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="1">
-        <v>339423</v>
+        <v>339396</v>
       </c>
       <c r="B768" s="8">
         <v>44645</v>
@@ -9789,7 +9789,7 @@
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="1">
-        <v>335462</v>
+        <v>335429</v>
       </c>
       <c r="B769" s="8">
         <v>44646</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="1">
-        <v>318007</v>
+        <v>317969</v>
       </c>
       <c r="B770" s="8">
         <v>44647</v>
@@ -9813,7 +9813,7 @@
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="1">
-        <v>187136</v>
+        <v>187099</v>
       </c>
       <c r="B771" s="8">
         <v>44648</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="1">
-        <v>347426</v>
+        <v>347397</v>
       </c>
       <c r="B772" s="11">
         <v>44649</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="1">
-        <v>424523</v>
+        <v>424500</v>
       </c>
       <c r="B773" s="11">
         <v>44650</v>
@@ -9849,7 +9849,7 @@
     </row>
     <row r="774" spans="1:5">
       <c r="A774" s="1">
-        <v>320656</v>
+        <v>320633</v>
       </c>
       <c r="B774" s="8">
         <v>44651</v>
@@ -9861,7 +9861,7 @@
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="1">
-        <v>280182</v>
+        <v>280160</v>
       </c>
       <c r="B775" s="8">
         <v>44652</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="776" spans="1:5" s="2" customFormat="1">
       <c r="A776" s="1">
-        <v>264078</v>
+        <v>264067</v>
       </c>
       <c r="B776" s="8">
         <v>44653</v>
@@ -9886,7 +9886,7 @@
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="1">
-        <v>234224</v>
+        <v>234214</v>
       </c>
       <c r="B777" s="8">
         <v>44654</v>
@@ -9898,7 +9898,7 @@
     </row>
     <row r="778" spans="1:5">
       <c r="A778" s="1">
-        <v>127142</v>
+        <v>127134</v>
       </c>
       <c r="B778" s="12">
         <v>44655</v>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="1">
-        <v>266056</v>
+        <v>266032</v>
       </c>
       <c r="B779" s="12">
         <v>44656</v>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="1">
-        <v>286233</v>
+        <v>286205</v>
       </c>
       <c r="B780" s="12">
         <v>44657</v>
@@ -9934,7 +9934,7 @@
     </row>
     <row r="781" spans="1:5">
       <c r="A781" s="1">
-        <v>224742</v>
+        <v>224723</v>
       </c>
       <c r="B781" s="13">
         <v>44658</v>
@@ -9946,7 +9946,7 @@
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="1">
-        <v>205271</v>
+        <v>205251</v>
       </c>
       <c r="B782" s="13">
         <v>44659</v>
@@ -9958,7 +9958,7 @@
     </row>
     <row r="783" spans="1:5">
       <c r="A783" s="1">
-        <v>185485</v>
+        <v>185461</v>
       </c>
       <c r="B783" s="13">
         <v>44660</v>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="1">
-        <v>164419</v>
+        <v>164395</v>
       </c>
       <c r="B784" s="13">
         <v>44661</v>
@@ -9982,7 +9982,7 @@
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="1">
-        <v>90882</v>
+        <v>90869</v>
       </c>
       <c r="B785" s="13">
         <v>44662</v>
@@ -9994,7 +9994,7 @@
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="1">
-        <v>210675</v>
+        <v>210653</v>
       </c>
       <c r="B786" s="13">
         <v>44663</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="1">
-        <v>195345</v>
+        <v>195325</v>
       </c>
       <c r="B787" s="13">
         <v>44664</v>
@@ -10018,7 +10018,7 @@
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="1">
-        <v>148386</v>
+        <v>148377</v>
       </c>
       <c r="B788" s="13">
         <v>44665</v>
@@ -10030,7 +10030,7 @@
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="1">
-        <v>125804</v>
+        <v>125794</v>
       </c>
       <c r="B789" s="13">
         <v>44666</v>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="1">
-        <v>107860</v>
+        <v>107846</v>
       </c>
       <c r="B790" s="12">
         <v>44667</v>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="1">
-        <v>92948</v>
+        <v>92935</v>
       </c>
       <c r="B791" s="13">
         <v>44668</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="1">
-        <v>47710</v>
+        <v>47702</v>
       </c>
       <c r="B792" s="13">
         <v>44669</v>
@@ -10078,7 +10078,7 @@
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="1">
-        <v>118443</v>
+        <v>118438</v>
       </c>
       <c r="B793" s="13">
         <v>44670</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="1">
-        <v>111274</v>
+        <v>111264</v>
       </c>
       <c r="B794" s="13">
         <v>44671</v>
@@ -10102,7 +10102,7 @@
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="1">
-        <v>90811</v>
+        <v>90796</v>
       </c>
       <c r="B795" s="13">
         <v>44672</v>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="1">
-        <v>81022</v>
+        <v>81015</v>
       </c>
       <c r="B796" s="13">
         <v>44673</v>
@@ -10126,7 +10126,7 @@
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="1">
-        <v>75385</v>
+        <v>75367</v>
       </c>
       <c r="B797" s="13">
         <v>44674</v>
@@ -10138,7 +10138,7 @@
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="1">
-        <v>64655</v>
+        <v>64635</v>
       </c>
       <c r="B798" s="13">
         <v>44675</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="1">
-        <v>34322</v>
+        <v>34319</v>
       </c>
       <c r="B799" s="13">
         <v>44676</v>
@@ -10162,7 +10162,7 @@
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="1">
-        <v>80313</v>
+        <v>80300</v>
       </c>
       <c r="B800" s="13">
         <v>44677</v>
@@ -10174,7 +10174,7 @@
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="1">
-        <v>76722</v>
+        <v>76713</v>
       </c>
       <c r="B801" s="13">
         <v>44678</v>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="1">
-        <v>57427</v>
+        <v>57425</v>
       </c>
       <c r="B802" s="13">
         <v>44679</v>
@@ -10198,7 +10198,7 @@
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="1">
-        <v>50523</v>
+        <v>50521</v>
       </c>
       <c r="B803" s="13">
         <v>44680</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="1">
-        <v>43255</v>
+        <v>43251</v>
       </c>
       <c r="B804" s="13">
         <v>44681</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="1">
-        <v>37720</v>
+        <v>37716</v>
       </c>
       <c r="B805" s="13">
         <v>44682</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="1">
-        <v>20045</v>
+        <v>20040</v>
       </c>
       <c r="B806" s="13">
         <v>44683</v>
@@ -10246,7 +10246,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="1">
-        <v>51071</v>
+        <v>51068</v>
       </c>
       <c r="B807" s="13">
         <v>44684</v>
@@ -10258,7 +10258,7 @@
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="1">
-        <v>49016</v>
+        <v>49015</v>
       </c>
       <c r="B808" s="13">
         <v>44685</v>
@@ -10270,7 +10270,7 @@
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="1">
-        <v>42258</v>
+        <v>42254</v>
       </c>
       <c r="B809" s="13">
         <v>44686</v>
@@ -10282,7 +10282,7 @@
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="1">
-        <v>26671</v>
+        <v>26663</v>
       </c>
       <c r="B810" s="13">
         <v>44687</v>
@@ -10294,7 +10294,7 @@
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="1">
-        <v>39563</v>
+        <v>39557</v>
       </c>
       <c r="B811" s="13">
         <v>44688</v>
@@ -10306,7 +10306,7 @@
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="1">
-        <v>40030</v>
+        <v>40022</v>
       </c>
       <c r="B812" s="13">
         <v>44689</v>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="1">
-        <v>20569</v>
+        <v>20565</v>
       </c>
       <c r="B813" s="13">
         <v>44690</v>
@@ -10330,7 +10330,7 @@
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="1">
-        <v>49896</v>
+        <v>49891</v>
       </c>
       <c r="B814" s="13">
         <v>44691</v>
@@ -10342,7 +10342,7 @@
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="1">
-        <v>43871</v>
+        <v>43869</v>
       </c>
       <c r="B815" s="13">
         <v>44692</v>
@@ -10354,7 +10354,7 @@
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="1">
-        <v>35880</v>
+        <v>35875</v>
       </c>
       <c r="B816" s="13">
         <v>44693</v>
@@ -10366,7 +10366,7 @@
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="1">
-        <v>32423</v>
+        <v>32419</v>
       </c>
       <c r="B817" s="13">
         <v>44694</v>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="1">
-        <v>29550</v>
+        <v>29541</v>
       </c>
       <c r="B818" s="13">
         <v>44695</v>
@@ -10390,7 +10390,7 @@
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="1">
-        <v>25397</v>
+        <v>25392</v>
       </c>
       <c r="B819" s="13">
         <v>44696</v>
@@ -10402,7 +10402,7 @@
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="1">
-        <v>13262</v>
+        <v>13258</v>
       </c>
       <c r="B820" s="13">
         <v>44697</v>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="1">
-        <v>35078</v>
+        <v>35076</v>
       </c>
       <c r="B821" s="13">
         <v>44698</v>
@@ -10426,7 +10426,7 @@
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="1">
-        <v>31303</v>
+        <v>31302</v>
       </c>
       <c r="B822" s="13">
         <v>44699</v>
@@ -10438,7 +10438,7 @@
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="1">
-        <v>28108</v>
+        <v>28104</v>
       </c>
       <c r="B823" s="13">
         <v>44700</v>
@@ -10450,7 +10450,7 @@
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="1">
-        <v>25097</v>
+        <v>25094</v>
       </c>
       <c r="B824" s="13">
         <v>44701</v>
@@ -10462,7 +10462,7 @@
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="1">
-        <v>23443</v>
+        <v>23436</v>
       </c>
       <c r="B825" s="13">
         <v>44702</v>
@@ -10474,7 +10474,7 @@
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="1">
-        <v>19262</v>
+        <v>19258</v>
       </c>
       <c r="B826" s="13">
         <v>44703</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="1">
-        <v>9953</v>
+        <v>9952</v>
       </c>
       <c r="B827" s="13">
         <v>44704</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="1">
-        <v>26295</v>
+        <v>26291</v>
       </c>
       <c r="B828" s="13">
         <v>44705</v>
@@ -10510,7 +10510,7 @@
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="1">
-        <v>23924</v>
+        <v>23917</v>
       </c>
       <c r="B829" s="13">
         <v>44706</v>
@@ -10534,7 +10534,7 @@
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="1">
-        <v>16528</v>
+        <v>16522</v>
       </c>
       <c r="B831" s="13">
         <v>44708</v>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="1">
-        <v>14349</v>
+        <v>14344</v>
       </c>
       <c r="B832" s="13">
         <v>44709</v>
@@ -10558,7 +10558,7 @@
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="1">
-        <v>12620</v>
+        <v>12617</v>
       </c>
       <c r="B833" s="13">
         <v>44710</v>
@@ -10570,7 +10570,7 @@
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="1">
-        <v>6086</v>
+        <v>6085</v>
       </c>
       <c r="B834" s="13">
         <v>44711</v>
@@ -10582,7 +10582,7 @@
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="1">
-        <v>17139</v>
+        <v>17134</v>
       </c>
       <c r="B835" s="13">
         <v>44712</v>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="1">
-        <v>15740</v>
+        <v>15735</v>
       </c>
       <c r="B836" s="13">
         <v>44713</v>
@@ -10606,7 +10606,7 @@
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="1">
-        <v>9853</v>
+        <v>9849</v>
       </c>
       <c r="B837" s="13">
         <v>44714</v>
@@ -10618,7 +10618,7 @@
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="1">
-        <v>12499</v>
+        <v>12492</v>
       </c>
       <c r="B838" s="13">
         <v>44715</v>
@@ -10630,7 +10630,7 @@
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="1">
-        <v>11994</v>
+        <v>11978</v>
       </c>
       <c r="B839" s="13">
         <v>44716</v>
@@ -10642,7 +10642,7 @@
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="1">
-        <v>9781</v>
+        <v>9778</v>
       </c>
       <c r="B840" s="13">
         <v>44717</v>
@@ -10654,7 +10654,7 @@
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="1">
-        <v>4998</v>
+        <v>4995</v>
       </c>
       <c r="B841" s="13">
         <v>44718</v>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="1">
-        <v>13292</v>
+        <v>13274</v>
       </c>
       <c r="B843" s="13">
         <v>44720</v>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="1">
-        <v>12083</v>
+        <v>12080</v>
       </c>
       <c r="B844" s="13">
         <v>44721</v>
@@ -10702,7 +10702,7 @@
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="1">
-        <v>9258</v>
+        <v>9255</v>
       </c>
       <c r="B845" s="13">
         <v>44722</v>
@@ -10714,7 +10714,7 @@
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="1">
-        <v>8372</v>
+        <v>8370</v>
       </c>
       <c r="B846" s="13">
         <v>44723</v>
@@ -10726,7 +10726,7 @@
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="1">
-        <v>7296</v>
+        <v>7292</v>
       </c>
       <c r="B847" s="13">
         <v>44724</v>
@@ -10738,7 +10738,7 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="1">
-        <v>3761</v>
+        <v>3759</v>
       </c>
       <c r="B848" s="13">
         <v>44725</v>
@@ -10750,7 +10750,7 @@
     </row>
     <row r="849" spans="1:5">
       <c r="A849" s="1">
-        <v>9726</v>
+        <v>9720</v>
       </c>
       <c r="B849" s="13">
         <v>44726</v>
@@ -10762,7 +10762,7 @@
     </row>
     <row r="850" spans="1:5">
       <c r="A850" s="1">
-        <v>9322</v>
+        <v>9318</v>
       </c>
       <c r="B850" s="13">
         <v>44727</v>
@@ -10774,7 +10774,7 @@
     </row>
     <row r="851" spans="1:5">
       <c r="A851" s="1">
-        <v>7893</v>
+        <v>7887</v>
       </c>
       <c r="B851" s="13">
         <v>44728</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="852" spans="1:5">
       <c r="A852" s="1">
-        <v>7122</v>
+        <v>7117</v>
       </c>
       <c r="B852" s="13">
         <v>44729</v>
@@ -10798,7 +10798,7 @@
     </row>
     <row r="853" spans="1:5" s="4" customFormat="1">
       <c r="A853" s="1">
-        <v>6744</v>
+        <v>6739</v>
       </c>
       <c r="B853" s="13">
         <v>44730</v>
@@ -10811,7 +10811,7 @@
     </row>
     <row r="854" spans="1:5">
       <c r="A854" s="1">
-        <v>5980</v>
+        <v>5977</v>
       </c>
       <c r="B854" s="13">
         <v>44731</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="855" spans="1:5">
       <c r="A855" s="1">
-        <v>3437</v>
+        <v>3425</v>
       </c>
       <c r="B855" s="13">
         <v>44732</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="856" spans="1:5">
       <c r="A856" s="1">
-        <v>9226</v>
+        <v>9216</v>
       </c>
       <c r="B856" s="13">
         <v>44733</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="857" spans="1:5">
       <c r="A857" s="1">
-        <v>8872</v>
+        <v>8868</v>
       </c>
       <c r="B857" s="13">
         <v>44734</v>
@@ -10859,7 +10859,7 @@
     </row>
     <row r="858" spans="1:5">
       <c r="A858" s="1">
-        <v>7401</v>
+        <v>7396</v>
       </c>
       <c r="B858" s="13">
         <v>44735</v>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="859" spans="1:5">
       <c r="A859" s="1">
-        <v>7105</v>
+        <v>7078</v>
       </c>
       <c r="B859" s="13">
         <v>44736</v>
@@ -10883,7 +10883,7 @@
     </row>
     <row r="860" spans="1:5">
       <c r="A860" s="1">
-        <v>6666</v>
+        <v>6661</v>
       </c>
       <c r="B860" s="13">
         <v>44737</v>
@@ -10895,7 +10895,7 @@
     </row>
     <row r="861" spans="1:5">
       <c r="A861" s="1">
-        <v>6100</v>
+        <v>6099</v>
       </c>
       <c r="B861" s="13">
         <v>44738</v>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="862" spans="1:5">
       <c r="A862" s="1">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B862" s="13">
         <v>44739</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="863" spans="1:5">
       <c r="A863" s="1">
-        <v>9770</v>
+        <v>9764</v>
       </c>
       <c r="B863" s="13">
         <v>44740</v>
@@ -10931,7 +10931,7 @@
     </row>
     <row r="864" spans="1:5">
       <c r="A864" s="1">
-        <v>10243</v>
+        <v>10229</v>
       </c>
       <c r="B864" s="13">
         <v>44741</v>
@@ -10943,7 +10943,7 @@
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="1">
-        <v>9445</v>
+        <v>9439</v>
       </c>
       <c r="B865" s="13">
         <v>44742</v>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="1">
-        <v>9376</v>
+        <v>9373</v>
       </c>
       <c r="B866" s="13">
         <v>44743</v>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="1">
-        <v>10536</v>
+        <v>10531</v>
       </c>
       <c r="B867" s="13">
         <v>44744</v>
@@ -10979,7 +10979,7 @@
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="1">
-        <v>9851</v>
+        <v>9845</v>
       </c>
       <c r="B868" s="13">
         <v>44745</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="1">
-        <v>6080</v>
+        <v>6077</v>
       </c>
       <c r="B869" s="13">
         <v>44746</v>
@@ -11003,7 +11003,7 @@
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="1">
-        <v>17961</v>
+        <v>17950</v>
       </c>
       <c r="B870" s="13">
         <v>44747</v>
@@ -11015,7 +11015,7 @@
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="1">
-        <v>19126</v>
+        <v>19114</v>
       </c>
       <c r="B871" s="13">
         <v>44748</v>
@@ -11027,7 +11027,7 @@
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="1">
-        <v>18297</v>
+        <v>18287</v>
       </c>
       <c r="B872" s="13">
         <v>44749</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="1">
-        <v>19107</v>
+        <v>19101</v>
       </c>
       <c r="B873" s="13">
         <v>44750</v>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="1">
-        <v>20040</v>
+        <v>20037</v>
       </c>
       <c r="B874" s="13">
         <v>44751</v>
@@ -11063,7 +11063,7 @@
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="1">
-        <v>20136</v>
+        <v>20124</v>
       </c>
       <c r="B875" s="13">
         <v>44752</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="1">
-        <v>12500</v>
+        <v>12497</v>
       </c>
       <c r="B876" s="13">
         <v>44753</v>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="1">
-        <v>37081</v>
+        <v>37074</v>
       </c>
       <c r="B877" s="13">
         <v>44754</v>
@@ -11099,7 +11099,7 @@
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="1">
-        <v>39856</v>
+        <v>39848</v>
       </c>
       <c r="B878" s="13">
         <v>44755</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="1">
-        <v>38831</v>
+        <v>38821</v>
       </c>
       <c r="B879" s="13">
         <v>44756</v>
@@ -11123,7 +11123,7 @@
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="1">
-        <v>38596</v>
+        <v>38588</v>
       </c>
       <c r="B880" s="13">
         <v>44757</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="1">
-        <v>41015</v>
+        <v>41010</v>
       </c>
       <c r="B881" s="13">
         <v>44758</v>
@@ -11147,7 +11147,7 @@
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="1">
-        <v>40018</v>
+        <v>40014</v>
       </c>
       <c r="B882" s="13">
         <v>44759</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="1">
-        <v>25957</v>
+        <v>25944</v>
       </c>
       <c r="B883" s="13">
         <v>44760</v>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="1">
-        <v>73190</v>
+        <v>73178</v>
       </c>
       <c r="B884" s="13">
         <v>44761</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="1">
-        <v>75931</v>
+        <v>75917</v>
       </c>
       <c r="B885" s="13">
         <v>44762</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="1">
-        <v>70816</v>
+        <v>70801</v>
       </c>
       <c r="B886" s="13">
         <v>44763</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="1">
-        <v>68269</v>
+        <v>68259</v>
       </c>
       <c r="B887" s="13">
         <v>44764</v>
@@ -11219,7 +11219,7 @@
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="5">
-        <v>68228</v>
+        <v>68216</v>
       </c>
       <c r="B888" s="13">
         <v>44765</v>
@@ -11231,7 +11231,7 @@
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="1">
-        <v>65051</v>
+        <v>65033</v>
       </c>
       <c r="B889" s="13">
         <v>44766</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="1">
-        <v>35512</v>
+        <v>35506</v>
       </c>
       <c r="B890" s="13">
         <v>44767</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="1">
-        <v>98861</v>
+        <v>98851</v>
       </c>
       <c r="B891" s="13">
         <v>44768</v>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="1">
-        <v>99690</v>
+        <v>99663</v>
       </c>
       <c r="B892" s="13">
         <v>44769</v>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="1">
-        <v>87919</v>
+        <v>87906</v>
       </c>
       <c r="B893" s="13">
         <v>44770</v>
@@ -11291,7 +11291,7 @@
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="1">
-        <v>84841</v>
+        <v>84825</v>
       </c>
       <c r="B894" s="13">
         <v>44771</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="1">
-        <v>81541</v>
+        <v>81521</v>
       </c>
       <c r="B895" s="13">
         <v>44772</v>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="1">
-        <v>73206</v>
+        <v>73192</v>
       </c>
       <c r="B896" s="13">
         <v>44773</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="1">
-        <v>44194</v>
+        <v>44173</v>
       </c>
       <c r="B897" s="13">
         <v>44774</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="1">
-        <v>111179</v>
+        <v>111164</v>
       </c>
       <c r="B898" s="13">
         <v>44775</v>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="1">
-        <v>119273</v>
+        <v>119253</v>
       </c>
       <c r="B899" s="13">
         <v>44776</v>
@@ -11363,7 +11363,7 @@
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="1">
-        <v>107418</v>
+        <v>107400</v>
       </c>
       <c r="B900" s="13">
         <v>44777</v>
@@ -11375,7 +11375,7 @@
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="1">
-        <v>112339</v>
+        <v>112313</v>
       </c>
       <c r="B901" s="13">
         <v>44778</v>
@@ -11387,7 +11387,7 @@
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="1">
-        <v>110053</v>
+        <v>110035</v>
       </c>
       <c r="B902" s="13">
         <v>44779</v>
@@ -11399,7 +11399,7 @@
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="1">
-        <v>104975</v>
+        <v>104965</v>
       </c>
       <c r="B903" s="13">
         <v>44780</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="1">
-        <v>54768</v>
+        <v>54757</v>
       </c>
       <c r="B904" s="13">
         <v>44781</v>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="1">
-        <v>149268</v>
+        <v>149255</v>
       </c>
       <c r="B905" s="13">
         <v>44782</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="1">
-        <v>151113</v>
+        <v>151103</v>
       </c>
       <c r="B906" s="13">
         <v>44783</v>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="1">
-        <v>136655</v>
+        <v>136638</v>
       </c>
       <c r="B907" s="13">
         <v>44784</v>
@@ -11459,7 +11459,7 @@
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="1">
-        <v>128196</v>
+        <v>128182</v>
       </c>
       <c r="B908" s="13">
         <v>44785</v>
@@ -11471,7 +11471,7 @@
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="1">
-        <v>124070</v>
+        <v>124059</v>
       </c>
       <c r="B909" s="13">
         <v>44786</v>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="1">
-        <v>119073</v>
+        <v>119061</v>
       </c>
       <c r="B910" s="13">
         <v>44787</v>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="1">
-        <v>61654</v>
+        <v>61646</v>
       </c>
       <c r="B911" s="13">
         <v>44788</v>
@@ -11507,7 +11507,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="1">
-        <v>83632</v>
+        <v>83623</v>
       </c>
       <c r="B912" s="13">
         <v>44789</v>
@@ -11519,7 +11519,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="1">
-        <v>180183</v>
+        <v>180169</v>
       </c>
       <c r="B913" s="13">
         <v>44790</v>
@@ -11531,7 +11531,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="1">
-        <v>177872</v>
+        <v>177854</v>
       </c>
       <c r="B914" s="13">
         <v>44791</v>
@@ -11543,7 +11543,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="1">
-        <v>138304</v>
+        <v>138281</v>
       </c>
       <c r="B915" s="13">
         <v>44792</v>
@@ -11555,7 +11555,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="1">
-        <v>128862</v>
+        <v>128849</v>
       </c>
       <c r="B916" s="13">
         <v>44793</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="1">
-        <v>110508</v>
+        <v>110493</v>
       </c>
       <c r="B917" s="13">
         <v>44794</v>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="1">
-        <v>58612</v>
+        <v>58605</v>
       </c>
       <c r="B918" s="13">
         <v>44795</v>
@@ -11591,7 +11591,7 @@
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="1">
-        <v>149706</v>
+        <v>149690</v>
       </c>
       <c r="B919" s="13">
         <v>44796</v>
@@ -11603,7 +11603,7 @@
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="1">
-        <v>138837</v>
+        <v>138820</v>
       </c>
       <c r="B920" s="13">
         <v>44797</v>
@@ -11615,7 +11615,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="1">
-        <v>112975</v>
+        <v>112963</v>
       </c>
       <c r="B921" s="13">
         <v>44798</v>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="1">
-        <v>100755</v>
+        <v>100743</v>
       </c>
       <c r="B922" s="13">
         <v>44799</v>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="1">
-        <v>95172</v>
+        <v>95163</v>
       </c>
       <c r="B923" s="13">
         <v>44800</v>
@@ -11651,7 +11651,7 @@
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="1">
-        <v>84866</v>
+        <v>84848</v>
       </c>
       <c r="B924" s="13">
         <v>44801</v>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="1">
-        <v>42754</v>
+        <v>42749</v>
       </c>
       <c r="B925" s="13">
         <v>44802</v>
@@ -11675,7 +11675,7 @@
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="1">
-        <v>115229</v>
+        <v>115212</v>
       </c>
       <c r="B926" s="13">
         <v>44803</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="1">
-        <v>103456</v>
+        <v>103445</v>
       </c>
       <c r="B927" s="13">
         <v>44804</v>
@@ -11699,7 +11699,7 @@
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="1">
-        <v>81256</v>
+        <v>81249</v>
       </c>
       <c r="B928" s="13">
         <v>44805</v>
@@ -11711,7 +11711,7 @@
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="1">
-        <v>89230</v>
+        <v>89216</v>
       </c>
       <c r="B929" s="13">
         <v>44806</v>
@@ -11723,7 +11723,7 @@
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="1">
-        <v>79388</v>
+        <v>79379</v>
       </c>
       <c r="B930" s="13">
         <v>44807</v>
@@ -11735,7 +11735,7 @@
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="1">
-        <v>71875</v>
+        <v>71864</v>
       </c>
       <c r="B931" s="13">
         <v>44808</v>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="1">
-        <v>37244</v>
+        <v>37240</v>
       </c>
       <c r="B932" s="13">
         <v>44809</v>
@@ -11759,7 +11759,7 @@
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="1">
-        <v>99535</v>
+        <v>99517</v>
       </c>
       <c r="B933" s="13">
         <v>44810</v>
@@ -11771,7 +11771,7 @@
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="1">
-        <v>85169</v>
+        <v>85155</v>
       </c>
       <c r="B934" s="13">
         <v>44811</v>
@@ -11783,7 +11783,7 @@
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="1">
-        <v>72401</v>
+        <v>72395</v>
       </c>
       <c r="B935" s="13">
         <v>44812</v>
@@ -11795,7 +11795,7 @@
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="1">
-        <v>69116</v>
+        <v>69102</v>
       </c>
       <c r="B936" s="13">
         <v>44813</v>
@@ -11807,7 +11807,7 @@
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="1">
-        <v>42461</v>
+        <v>42446</v>
       </c>
       <c r="B937" s="13">
         <v>44814</v>
@@ -11819,7 +11819,7 @@
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="1">
-        <v>27967</v>
+        <v>27963</v>
       </c>
       <c r="B938" s="13">
         <v>44815</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="1">
-        <v>36715</v>
+        <v>36710</v>
       </c>
       <c r="B939" s="13">
         <v>44816</v>
@@ -11843,7 +11843,7 @@
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="1">
-        <v>57009</v>
+        <v>57005</v>
       </c>
       <c r="B940" s="13">
         <v>44817</v>
@@ -11855,7 +11855,7 @@
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="1">
-        <v>93637</v>
+        <v>93633</v>
       </c>
       <c r="B941" s="13">
         <v>44818</v>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="1">
-        <v>71098</v>
+        <v>71091</v>
       </c>
       <c r="B942" s="13">
         <v>44819</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="1">
-        <v>51506</v>
+        <v>51497</v>
       </c>
       <c r="B943" s="13">
         <v>44820</v>
@@ -11891,7 +11891,7 @@
     </row>
     <row r="944" spans="1:4">
       <c r="A944" s="1">
-        <v>43153</v>
+        <v>43147</v>
       </c>
       <c r="B944" s="13">
         <v>44821</v>
@@ -11903,7 +11903,7 @@
     </row>
     <row r="945" spans="1:4">
       <c r="A945" s="1">
-        <v>34499</v>
+        <v>34493</v>
       </c>
       <c r="B945" s="13">
         <v>44822</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="946" spans="1:4">
       <c r="A946" s="1">
-        <v>19103</v>
+        <v>19102</v>
       </c>
       <c r="B946" s="13">
         <v>44823</v>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="947" spans="1:4">
       <c r="A947" s="1">
-        <v>47575</v>
+        <v>47568</v>
       </c>
       <c r="B947" s="13">
         <v>44824</v>
@@ -11939,7 +11939,7 @@
     </row>
     <row r="948" spans="1:4">
       <c r="A948" s="1">
-        <v>40942</v>
+        <v>40931</v>
       </c>
       <c r="B948" s="13">
         <v>44825</v>
@@ -11951,7 +11951,7 @@
     </row>
     <row r="949" spans="1:4">
       <c r="A949" s="1">
-        <v>32735</v>
+        <v>32732</v>
       </c>
       <c r="B949" s="13">
         <v>44826</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="950" spans="1:4">
       <c r="A950" s="1">
-        <v>28790</v>
+        <v>28785</v>
       </c>
       <c r="B950" s="13">
         <v>44827</v>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="951" spans="1:4">
       <c r="A951" s="1">
-        <v>29034</v>
+        <v>29029</v>
       </c>
       <c r="B951" s="13">
         <v>44828</v>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="952" spans="1:4">
       <c r="A952" s="1">
-        <v>25521</v>
+        <v>25515</v>
       </c>
       <c r="B952" s="13">
         <v>44829</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="953" spans="1:4">
       <c r="A953" s="1">
-        <v>13936</v>
+        <v>13935</v>
       </c>
       <c r="B953" s="13">
         <v>44830</v>
@@ -12011,7 +12011,7 @@
     </row>
     <row r="954" spans="1:4">
       <c r="A954" s="1">
-        <v>39099</v>
+        <v>39090</v>
       </c>
       <c r="B954" s="13">
         <v>44831</v>
@@ -12023,7 +12023,7 @@
     </row>
     <row r="955" spans="1:4">
       <c r="A955" s="1">
-        <v>35756</v>
+        <v>35745</v>
       </c>
       <c r="B955" s="13">
         <v>44832</v>
@@ -12035,7 +12035,7 @@
     </row>
     <row r="956" spans="1:4">
       <c r="A956" s="1">
-        <v>30611</v>
+        <v>30600</v>
       </c>
       <c r="B956" s="13">
         <v>44833</v>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="957" spans="1:4">
       <c r="A957" s="1">
-        <v>28213</v>
+        <v>28211</v>
       </c>
       <c r="B957" s="13">
         <v>44834</v>
@@ -12059,7 +12059,7 @@
     </row>
     <row r="958" spans="1:4">
       <c r="A958" s="1">
-        <v>26649</v>
+        <v>26646</v>
       </c>
       <c r="B958" s="13">
         <v>44835</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="1">
-        <v>23334</v>
+        <v>23332</v>
       </c>
       <c r="B959" s="13">
         <v>44836</v>
@@ -12083,7 +12083,7 @@
     </row>
     <row r="960" spans="1:4">
       <c r="A960" s="1">
-        <v>12011</v>
+        <v>12010</v>
       </c>
       <c r="B960" s="13">
         <v>44837</v>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="961" spans="1:4">
       <c r="A961" s="1">
-        <v>16307</v>
+        <v>16306</v>
       </c>
       <c r="B961" s="13">
         <v>44838</v>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="962" spans="1:4">
       <c r="A962" s="1">
-        <v>34656</v>
+        <v>34647</v>
       </c>
       <c r="B962" s="13">
         <v>44839</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="963" spans="1:4">
       <c r="A963" s="1">
-        <v>28552</v>
+        <v>28550</v>
       </c>
       <c r="B963" s="13">
         <v>44840</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="964" spans="1:4">
       <c r="A964" s="1">
-        <v>22232</v>
+        <v>22225</v>
       </c>
       <c r="B964" s="13">
         <v>44841</v>
@@ -12143,7 +12143,7 @@
     </row>
     <row r="965" spans="1:4">
       <c r="A965" s="1">
-        <v>19361</v>
+        <v>19359</v>
       </c>
       <c r="B965" s="13">
         <v>44842</v>
@@ -12155,7 +12155,7 @@
     </row>
     <row r="966" spans="1:4">
       <c r="A966" s="1">
-        <v>17585</v>
+        <v>17584</v>
       </c>
       <c r="B966" s="13">
         <v>44843</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="967" spans="1:4">
       <c r="A967" s="1">
-        <v>8927</v>
+        <v>8921</v>
       </c>
       <c r="B967" s="13">
         <v>44844</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="968" spans="1:4">
       <c r="A968" s="1">
-        <v>15370</v>
+        <v>15365</v>
       </c>
       <c r="B968" s="13">
         <v>44845</v>
@@ -12191,7 +12191,7 @@
     </row>
     <row r="969" spans="1:4">
       <c r="A969" s="1">
-        <v>30446</v>
+        <v>30439</v>
       </c>
       <c r="B969" s="13">
         <v>44846</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="970" spans="1:4">
       <c r="A970" s="1">
-        <v>26869</v>
+        <v>26858</v>
       </c>
       <c r="B970" s="13">
         <v>44847</v>
@@ -12215,7 +12215,7 @@
     </row>
     <row r="971" spans="1:4">
       <c r="A971" s="1">
-        <v>23512</v>
+        <v>23511</v>
       </c>
       <c r="B971" s="13">
         <v>44848</v>
@@ -12227,7 +12227,7 @@
     </row>
     <row r="972" spans="1:4">
       <c r="A972" s="1">
-        <v>22776</v>
+        <v>22771</v>
       </c>
       <c r="B972" s="13">
         <v>44849</v>
@@ -12239,7 +12239,7 @@
     </row>
     <row r="973" spans="1:4">
       <c r="A973" s="1">
-        <v>21367</v>
+        <v>21366</v>
       </c>
       <c r="B973" s="13">
         <v>44850</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="974" spans="1:4">
       <c r="A974" s="1">
-        <v>10943</v>
+        <v>10940</v>
       </c>
       <c r="B974" s="13">
         <v>44851</v>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="975" spans="1:4">
       <c r="A975" s="1">
-        <v>33131</v>
+        <v>33128</v>
       </c>
       <c r="B975" s="13">
         <v>44852</v>
@@ -12275,7 +12275,7 @@
     </row>
     <row r="976" spans="1:4">
       <c r="A976" s="1">
-        <v>29420</v>
+        <v>29413</v>
       </c>
       <c r="B976" s="13">
         <v>44853</v>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="977" spans="1:4">
       <c r="A977" s="1">
-        <v>25323</v>
+        <v>25312</v>
       </c>
       <c r="B977" s="13">
         <v>44854</v>
@@ -12299,7 +12299,7 @@
     </row>
     <row r="978" spans="1:4">
       <c r="A978" s="1">
-        <v>24673</v>
+        <v>24668</v>
       </c>
       <c r="B978" s="13">
         <v>44855</v>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="979" spans="1:4">
       <c r="A979" s="1">
-        <v>26844</v>
+        <v>26842</v>
       </c>
       <c r="B979" s="13">
         <v>44856</v>
@@ -12323,7 +12323,7 @@
     </row>
     <row r="980" spans="1:4">
       <c r="A980" s="1">
-        <v>26168</v>
+        <v>26167</v>
       </c>
       <c r="B980" s="13">
         <v>44857</v>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="982" spans="1:4">
       <c r="A982" s="1">
-        <v>43667</v>
+        <v>43662</v>
       </c>
       <c r="B982" s="13">
         <v>44859</v>
@@ -12359,7 +12359,7 @@
     </row>
     <row r="983" spans="1:4">
       <c r="A983" s="1">
-        <v>40736</v>
+        <v>40731</v>
       </c>
       <c r="B983" s="13">
         <v>44860</v>
@@ -12371,7 +12371,7 @@
     </row>
     <row r="984" spans="1:4">
       <c r="A984" s="1">
-        <v>34919</v>
+        <v>34914</v>
       </c>
       <c r="B984" s="13">
         <v>44861</v>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="985" spans="1:4">
       <c r="A985" s="1">
-        <v>35853</v>
+        <v>35852</v>
       </c>
       <c r="B985" s="13">
         <v>44862</v>
@@ -12395,7 +12395,7 @@
     </row>
     <row r="986" spans="1:4">
       <c r="A986" s="1">
-        <v>37256</v>
+        <v>37251</v>
       </c>
       <c r="B986" s="13">
         <v>44863</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="987" spans="1:4">
       <c r="A987" s="1">
-        <v>34445</v>
+        <v>34444</v>
       </c>
       <c r="B987" s="13">
         <v>44864</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="988" spans="1:4">
       <c r="A988" s="1">
-        <v>18447</v>
+        <v>18444</v>
       </c>
       <c r="B988" s="13">
         <v>44865</v>
